--- a/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_hybdies.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_hybdies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B52B6FB-8248-A640-B478-5748215A5F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E0DF35-397E-584D-AC20-5A6765F3B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>Enables the model to not use the capacity if required.</t>
   </si>
   <si>
-    <t>Maximum observed</t>
-  </si>
-  <si>
     <t>Mpkm/Mvkm</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>Difference between previous year and this year, to avoid negative retirements..</t>
   </si>
   <si>
-    <t>litre_diesel/Mvkm</t>
-  </si>
-  <si>
     <t>conv_passenger_hybdies</t>
   </si>
   <si>
@@ -284,7 +278,13 @@
     <t>Full usage of available cars.</t>
   </si>
   <si>
-    <t>Average of yearly total Mvkm/total car units. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+    <t>Average hourly travel per vehicle. Obtained via: total_Mvkm/total_car_units/8760. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+  </si>
+  <si>
+    <t>Maximum observed*1.1</t>
+  </si>
+  <si>
+    <t>Mvkm/litre_diesel</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
   <dimension ref="A1:L429"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G257" sqref="G257:L316"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -851,22 +851,22 @@
         <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>41000</v>
+        <v>2.4390243902439026E-5</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
         <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -889,7 +889,7 @@
         <v>1.743955352</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -915,17 +915,17 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>3847</v>
+        <v>4232</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -933,26 +933,26 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1.2886737000000001E-2</v>
+        <v>1.4710886986301371E-6</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -972,16 +972,16 @@
         <v>107.2</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1007,10 +1007,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1052,10 +1052,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>52</v>
@@ -1079,7 +1079,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
@@ -1096,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1140,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1169,13 +1169,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1198,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
         <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1285,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
         <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
         <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
         <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1459,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
         <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
         <v>38</v>
       </c>
       <c r="L30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1517,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1575,13 +1575,13 @@
         <v>4.9598538095302167E-2</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1604,13 +1604,13 @@
         <v>3.6993076899176663E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1633,13 +1633,13 @@
         <v>3.7541184241115799E-2</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1662,13 +1662,13 @@
         <v>0.12757270153463837</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
         <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1691,13 +1691,13 @@
         <v>0.21735701855152295</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1720,13 +1720,13 @@
         <v>0.39278895904994621</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" t="s">
         <v>38</v>
       </c>
       <c r="L38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1749,13 +1749,13 @@
         <v>9.7196305584676121</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1778,13 +1778,13 @@
         <v>19.691387015961265</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
         <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1807,13 +1807,13 @@
         <v>26.167903873762253</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" t="s">
         <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1821,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1836,13 +1836,13 @@
         <v>35.900785051836571</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
         <v>38</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1865,13 +1865,13 @@
         <v>43.559302292404666</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J43" t="s">
         <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1894,13 +1894,13 @@
         <v>45.567114870858013</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J44" t="s">
         <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1923,13 +1923,13 @@
         <v>50.01560263484631</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
         <v>38</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -1952,13 +1952,13 @@
         <v>82.062174525978108</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="L46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1981,14 +1981,14 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2011,14 +2011,14 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2026,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -2041,14 +2041,14 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" t="s">
         <v>38</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -2071,14 +2071,14 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50" t="s">
         <v>38</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2086,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2101,14 +2101,14 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J51" t="s">
         <v>38</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -2131,14 +2131,14 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J52" t="s">
         <v>38</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -2161,14 +2161,14 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J53" t="s">
         <v>38</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2191,14 +2191,14 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J54" t="s">
         <v>38</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2221,14 +2221,14 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J55" t="s">
         <v>38</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -2251,14 +2251,14 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J56" t="s">
         <v>38</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2266,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -2281,14 +2281,14 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2296,7 +2296,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -2311,14 +2311,14 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J58" t="s">
         <v>38</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2341,14 +2341,14 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J59" t="s">
         <v>38</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2356,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2371,14 +2371,14 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2401,14 +2401,14 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61" t="s">
         <v>38</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2416,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2431,16 +2431,16 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J62" t="s">
         <v>44</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2448,7 +2448,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -2463,16 +2463,16 @@
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -2495,16 +2495,16 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J64" t="s">
         <v>44</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2512,7 +2512,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -2527,16 +2527,16 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J65" t="s">
         <v>44</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2559,16 +2559,16 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J66" t="s">
         <v>44</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -2591,16 +2591,16 @@
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2608,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -2623,16 +2623,16 @@
         <v>31</v>
       </c>
       <c r="H68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J68" t="s">
         <v>44</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2640,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -2655,16 +2655,16 @@
         <v>769</v>
       </c>
       <c r="H69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2672,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -2687,16 +2687,16 @@
         <v>1554</v>
       </c>
       <c r="H70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J70" t="s">
         <v>44</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -2719,16 +2719,16 @@
         <v>2060</v>
       </c>
       <c r="H71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J71" t="s">
         <v>44</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2736,7 +2736,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -2751,16 +2751,16 @@
         <v>2824</v>
       </c>
       <c r="H72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J72" t="s">
         <v>44</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -2783,16 +2783,16 @@
         <v>3410</v>
       </c>
       <c r="H73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2800,7 +2800,7 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -2815,16 +2815,16 @@
         <v>3543</v>
       </c>
       <c r="H74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J74" t="s">
         <v>44</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2832,7 +2832,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -2847,16 +2847,16 @@
         <v>3876</v>
       </c>
       <c r="H75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J75" t="s">
         <v>44</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2864,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -2879,16 +2879,16 @@
         <v>6337</v>
       </c>
       <c r="H76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2896,7 +2896,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J77" t="s">
         <v>45</v>
@@ -2920,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="L77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2928,7 +2928,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
@@ -2952,7 +2952,7 @@
         <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2960,7 +2960,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
@@ -2984,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2992,7 +2992,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J80" t="s">
         <v>45</v>
@@ -3016,7 +3016,7 @@
         <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3024,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J81" t="s">
         <v>45</v>
@@ -3048,7 +3048,7 @@
         <v>41</v>
       </c>
       <c r="L81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3056,7 +3056,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J82" t="s">
         <v>45</v>
@@ -3080,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="L82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J83" t="s">
         <v>45</v>
@@ -3112,7 +3112,7 @@
         <v>41</v>
       </c>
       <c r="L83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3120,7 +3120,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
@@ -3144,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="L84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3152,7 +3152,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
@@ -3176,7 +3176,7 @@
         <v>41</v>
       </c>
       <c r="L85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3184,7 +3184,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J86" t="s">
         <v>45</v>
@@ -3208,7 +3208,7 @@
         <v>41</v>
       </c>
       <c r="L86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3216,7 +3216,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J87" t="s">
         <v>45</v>
@@ -3240,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="L87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3248,7 +3248,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
@@ -3272,7 +3272,7 @@
         <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3280,7 +3280,7 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J89" t="s">
         <v>45</v>
@@ -3304,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3312,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J90" t="s">
         <v>45</v>
@@ -3336,7 +3336,7 @@
         <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J91" t="s">
         <v>45</v>
@@ -3368,7 +3368,7 @@
         <v>41</v>
       </c>
       <c r="L91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3376,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -3391,16 +3391,16 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J92" t="s">
         <v>44</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3408,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -3423,14 +3423,14 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J93" t="s">
         <v>38</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -3453,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J94" t="s">
         <v>44</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3470,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3517,14 +3517,14 @@
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J96" t="s">
         <v>38</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3532,7 +3532,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -3547,14 +3547,14 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J97" t="s">
         <v>38</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3562,7 +3562,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -3577,16 +3577,16 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3594,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -3609,16 +3609,16 @@
         <v>956</v>
       </c>
       <c r="H99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J99" t="s">
         <v>44</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3626,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -3641,14 +3641,14 @@
         <v>785</v>
       </c>
       <c r="H100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J100" t="s">
         <v>38</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -3671,16 +3671,16 @@
         <v>516</v>
       </c>
       <c r="H101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J101" t="s">
         <v>44</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3688,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -3703,16 +3703,16 @@
         <v>835</v>
       </c>
       <c r="H102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -3735,14 +3735,14 @@
         <v>586</v>
       </c>
       <c r="H103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J103" t="s">
         <v>38</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3750,7 +3750,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
@@ -3765,16 +3765,16 @@
         <v>181</v>
       </c>
       <c r="H104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J104" t="s">
         <v>44</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3782,7 +3782,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
@@ -3797,16 +3797,16 @@
         <v>794</v>
       </c>
       <c r="H105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -3829,16 +3829,16 @@
         <v>3847</v>
       </c>
       <c r="H106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3846,7 +3846,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -3863,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
@@ -3892,7 +3892,7 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
@@ -3921,7 +3921,7 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J110" t="s">
         <v>38</v>
@@ -3950,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J111" t="s">
         <v>38</v>
@@ -3979,7 +3979,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J112" t="s">
         <v>38</v>
@@ -4008,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J113" t="s">
         <v>38</v>
@@ -4037,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J114" t="s">
         <v>38</v>
@@ -4066,7 +4066,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J115" t="s">
         <v>38</v>
@@ -4095,7 +4095,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J116" t="s">
         <v>38</v>
@@ -4124,7 +4124,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J117" t="s">
         <v>38</v>
@@ -4153,7 +4153,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J118" t="s">
         <v>38</v>
@@ -4182,7 +4182,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J119" t="s">
         <v>38</v>
@@ -4211,7 +4211,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J120" t="s">
         <v>38</v>
@@ -4240,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J121" t="s">
         <v>38</v>
@@ -4269,7 +4269,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J122" t="s">
         <v>38</v>
@@ -4298,7 +4298,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J123" t="s">
         <v>38</v>
@@ -4327,7 +4327,7 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -4342,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J124" t="s">
         <v>38</v>
@@ -4356,7 +4356,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J125" t="s">
         <v>38</v>
@@ -4385,7 +4385,7 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J126" t="s">
         <v>38</v>
@@ -4414,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J127" t="s">
         <v>38</v>
@@ -4443,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -4458,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J128" t="s">
         <v>38</v>
@@ -4472,7 +4472,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
@@ -4487,7 +4487,7 @@
         <v>218</v>
       </c>
       <c r="H129" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J129" t="s">
         <v>38</v>
@@ -4501,7 +4501,7 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J130" t="s">
         <v>38</v>
@@ -4530,7 +4530,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -4545,7 +4545,7 @@
         <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J131" t="s">
         <v>38</v>
@@ -4559,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -4574,7 +4574,7 @@
         <v>71</v>
       </c>
       <c r="H132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J132" t="s">
         <v>38</v>
@@ -4588,7 +4588,7 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J133" t="s">
         <v>38</v>
@@ -4617,7 +4617,7 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -4632,7 +4632,7 @@
         <v>48</v>
       </c>
       <c r="H134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J134" t="s">
         <v>38</v>
@@ -4646,7 +4646,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
@@ -4661,7 +4661,7 @@
         <v>461</v>
       </c>
       <c r="H135" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J135" t="s">
         <v>38</v>
@@ -4675,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -4690,7 +4690,7 @@
         <v>1386</v>
       </c>
       <c r="H136" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J136" t="s">
         <v>38</v>
@@ -4704,7 +4704,7 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -4721,7 +4721,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -4738,7 +4738,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -4755,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -4772,7 +4772,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -4789,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -4806,7 +4806,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -4823,7 +4823,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -4840,7 +4840,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -4857,7 +4857,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -4874,7 +4874,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
@@ -4891,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -4908,7 +4908,7 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
@@ -4925,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -4942,7 +4942,7 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -4959,7 +4959,7 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -4976,7 +4976,7 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -4993,7 +4993,7 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -5010,7 +5010,7 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -5027,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -5044,7 +5044,7 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -5065,10 +5065,10 @@
         <v>42</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L157" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -5076,7 +5076,7 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -5093,7 +5093,7 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -5110,7 +5110,7 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -5127,7 +5127,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -5144,7 +5144,7 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -5161,7 +5161,7 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -5178,7 +5178,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -5195,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -5212,7 +5212,7 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
@@ -5229,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -5246,7 +5246,7 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -5263,7 +5263,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -5280,7 +5280,7 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -5297,7 +5297,7 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -5314,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -5331,7 +5331,7 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
@@ -5348,7 +5348,7 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C174" t="s">
         <v>23</v>
@@ -5365,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C175" t="s">
         <v>23</v>
@@ -5382,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -5399,7 +5399,7 @@
         <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
@@ -5416,7 +5416,7 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C178" t="s">
         <v>23</v>
@@ -5433,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C179" t="s">
         <v>23</v>
@@ -5450,7 +5450,7 @@
         <v>15</v>
       </c>
       <c r="B180" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C180" t="s">
         <v>23</v>
@@ -5467,7 +5467,7 @@
         <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
@@ -5484,7 +5484,7 @@
         <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -5501,7 +5501,7 @@
         <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C183" t="s">
         <v>23</v>
@@ -5518,7 +5518,7 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -5535,7 +5535,7 @@
         <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C185" t="s">
         <v>23</v>
@@ -5552,7 +5552,7 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C186" t="s">
         <v>23</v>
@@ -5569,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C187" t="s">
         <v>23</v>
@@ -5590,10 +5590,10 @@
         <v>42</v>
       </c>
       <c r="K187" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L187" t="s">
         <v>75</v>
-      </c>
-      <c r="L187" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -5601,7 +5601,7 @@
         <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C188" t="s">
         <v>23</v>
@@ -5618,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C189" t="s">
         <v>23</v>
@@ -5635,7 +5635,7 @@
         <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -5652,7 +5652,7 @@
         <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -5669,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -5686,7 +5686,7 @@
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -5703,7 +5703,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -5720,7 +5720,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -5737,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -5754,7 +5754,7 @@
         <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -5771,7 +5771,7 @@
         <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
@@ -5788,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -5805,7 +5805,7 @@
         <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -5822,7 +5822,7 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
@@ -5839,7 +5839,7 @@
         <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -5856,7 +5856,7 @@
         <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
@@ -5873,7 +5873,7 @@
         <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
@@ -5890,7 +5890,7 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -5907,7 +5907,7 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
@@ -5924,7 +5924,7 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
@@ -5941,7 +5941,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
@@ -5958,7 +5958,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
@@ -5975,7 +5975,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
@@ -5992,7 +5992,7 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
@@ -6009,7 +6009,7 @@
         <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
@@ -6026,7 +6026,7 @@
         <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
@@ -6043,7 +6043,7 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
@@ -6077,7 +6077,7 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
@@ -6094,7 +6094,7 @@
         <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
@@ -6109,16 +6109,16 @@
         <v>44000</v>
       </c>
       <c r="H217" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J217" t="s">
         <v>42</v>
       </c>
       <c r="K217" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L217" t="s">
         <v>75</v>
-      </c>
-      <c r="L217" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
         <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
@@ -6143,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -6160,7 +6160,7 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C220" t="s">
         <v>24</v>
@@ -6177,7 +6177,7 @@
         <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
@@ -6194,7 +6194,7 @@
         <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C222" t="s">
         <v>24</v>
@@ -6211,7 +6211,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C223" t="s">
         <v>24</v>
@@ -6228,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
@@ -6245,7 +6245,7 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
@@ -6262,7 +6262,7 @@
         <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
@@ -6279,7 +6279,7 @@
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -6296,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -6325,7 +6325,7 @@
         <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
@@ -6354,7 +6354,7 @@
         <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C230" t="s">
         <v>25</v>
@@ -6383,7 +6383,7 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C231" t="s">
         <v>25</v>
@@ -6412,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
@@ -6441,7 +6441,7 @@
         <v>15</v>
       </c>
       <c r="B233" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C233" t="s">
         <v>25</v>
@@ -6470,7 +6470,7 @@
         <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6499,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -6528,7 +6528,7 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C236" t="s">
         <v>25</v>
@@ -6557,7 +6557,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C237" t="s">
         <v>25</v>
@@ -6586,7 +6586,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C238" t="s">
         <v>25</v>
@@ -6615,7 +6615,7 @@
         <v>15</v>
       </c>
       <c r="B239" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C239" t="s">
         <v>25</v>
@@ -6644,7 +6644,7 @@
         <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C240" t="s">
         <v>25</v>
@@ -6673,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C241" t="s">
         <v>25</v>
@@ -6702,7 +6702,7 @@
         <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C242" t="s">
         <v>25</v>
@@ -6731,7 +6731,7 @@
         <v>15</v>
       </c>
       <c r="B243" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C243" t="s">
         <v>25</v>
@@ -6760,7 +6760,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C244" t="s">
         <v>25</v>
@@ -6789,7 +6789,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C245" t="s">
         <v>25</v>
@@ -6818,7 +6818,7 @@
         <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C246" t="s">
         <v>25</v>
@@ -6847,7 +6847,7 @@
         <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C247" t="s">
         <v>25</v>
@@ -6876,7 +6876,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C248" t="s">
         <v>25</v>
@@ -6905,7 +6905,7 @@
         <v>15</v>
       </c>
       <c r="B249" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6934,7 +6934,7 @@
         <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C250" t="s">
         <v>25</v>
@@ -6963,7 +6963,7 @@
         <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C251" t="s">
         <v>25</v>
@@ -6992,7 +6992,7 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C252" t="s">
         <v>25</v>
@@ -7021,7 +7021,7 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C253" t="s">
         <v>25</v>
@@ -7050,7 +7050,7 @@
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C254" t="s">
         <v>25</v>
@@ -7079,7 +7079,7 @@
         <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C255" t="s">
         <v>25</v>
@@ -7108,7 +7108,7 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C256" t="s">
         <v>25</v>
@@ -7137,7 +7137,7 @@
         <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7164,7 +7164,7 @@
         <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7218,7 +7218,7 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7245,7 +7245,7 @@
         <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7272,7 +7272,7 @@
         <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7299,7 +7299,7 @@
         <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7353,7 +7353,7 @@
         <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7380,7 +7380,7 @@
         <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7434,7 +7434,7 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -7488,7 +7488,7 @@
         <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -7515,7 +7515,7 @@
         <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -7542,7 +7542,7 @@
         <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C272" t="s">
         <v>26</v>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -7569,7 +7569,7 @@
         <v>15</v>
       </c>
       <c r="B273" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -7596,7 +7596,7 @@
         <v>15</v>
       </c>
       <c r="B274" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -7650,7 +7650,7 @@
         <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -7677,7 +7677,7 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C277" t="s">
         <v>26</v>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -7704,7 +7704,7 @@
         <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C278" t="s">
         <v>26</v>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -7731,7 +7731,7 @@
         <v>15</v>
       </c>
       <c r="B279" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C279" t="s">
         <v>26</v>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -7758,7 +7758,7 @@
         <v>15</v>
       </c>
       <c r="B280" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C280" t="s">
         <v>26</v>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -7785,7 +7785,7 @@
         <v>15</v>
       </c>
       <c r="B281" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C281" t="s">
         <v>26</v>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -7812,7 +7812,7 @@
         <v>15</v>
       </c>
       <c r="B282" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C282" t="s">
         <v>26</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -7839,7 +7839,7 @@
         <v>15</v>
       </c>
       <c r="B283" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C283" t="s">
         <v>26</v>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -7866,7 +7866,7 @@
         <v>15</v>
       </c>
       <c r="B284" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C284" t="s">
         <v>26</v>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -7893,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="B285" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C285" t="s">
         <v>26</v>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -7920,7 +7920,7 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C286" t="s">
         <v>26</v>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -7947,7 +7947,7 @@
         <v>15</v>
       </c>
       <c r="B287" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -7973,7 +7973,7 @@
         <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -7999,7 +7999,7 @@
         <v>15</v>
       </c>
       <c r="B289" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -8025,7 +8025,7 @@
         <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -8051,7 +8051,7 @@
         <v>15</v>
       </c>
       <c r="B291" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -8077,7 +8077,7 @@
         <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -8103,7 +8103,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -8129,7 +8129,7 @@
         <v>15</v>
       </c>
       <c r="B294" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -8155,7 +8155,7 @@
         <v>15</v>
       </c>
       <c r="B295" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -8181,7 +8181,7 @@
         <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -8207,7 +8207,7 @@
         <v>15</v>
       </c>
       <c r="B297" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -8233,7 +8233,7 @@
         <v>15</v>
       </c>
       <c r="B298" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -8259,7 +8259,7 @@
         <v>15</v>
       </c>
       <c r="B299" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C299" t="s">
         <v>27</v>
@@ -8285,7 +8285,7 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C300" t="s">
         <v>27</v>
@@ -8311,7 +8311,7 @@
         <v>15</v>
       </c>
       <c r="B301" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C301" t="s">
         <v>27</v>
@@ -8337,7 +8337,7 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -8363,7 +8363,7 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -8389,7 +8389,7 @@
         <v>15</v>
       </c>
       <c r="B304" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C304" t="s">
         <v>27</v>
@@ -8415,7 +8415,7 @@
         <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
@@ -8441,7 +8441,7 @@
         <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C306" t="s">
         <v>27</v>
@@ -8467,7 +8467,7 @@
         <v>15</v>
       </c>
       <c r="B307" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -8493,7 +8493,7 @@
         <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -8519,7 +8519,7 @@
         <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C309" t="s">
         <v>27</v>
@@ -8545,7 +8545,7 @@
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C310" t="s">
         <v>27</v>
@@ -8571,7 +8571,7 @@
         <v>15</v>
       </c>
       <c r="B311" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C311" t="s">
         <v>27</v>
@@ -8597,7 +8597,7 @@
         <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C312" t="s">
         <v>27</v>
@@ -8623,7 +8623,7 @@
         <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C313" t="s">
         <v>27</v>
@@ -8649,7 +8649,7 @@
         <v>15</v>
       </c>
       <c r="B314" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C314" t="s">
         <v>27</v>
@@ -8675,7 +8675,7 @@
         <v>15</v>
       </c>
       <c r="B315" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C315" t="s">
         <v>27</v>
@@ -8701,7 +8701,7 @@
         <v>15</v>
       </c>
       <c r="B316" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C316" t="s">
         <v>27</v>
